--- a/Projects/Current sensors/BOM - Current Sensor v7.4.xlsx
+++ b/Projects/Current sensors/BOM - Current Sensor v7.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>RefDes</t>
   </si>
@@ -85,9 +85,6 @@
     <t>JST-B2B-SM4-TB</t>
   </si>
   <si>
-    <t>JST</t>
-  </si>
-  <si>
     <t>http://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>ACS081C027</t>
-  </si>
-  <si>
     <t xml:space="preserve">IC ADC 8BIT I2C 188KSPS 8VSSOP </t>
   </si>
   <si>
@@ -175,13 +169,88 @@
     <t>http://www.ti.com/lit/ds/symlink/adc081c021.pdf</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/datasheet/2/400/lcc_commercial_general_en-837201.pdf</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/datasheet/2/212/KEM_C1002_X7R_SMD-1102033.pdf</t>
-  </si>
-  <si>
-    <t>https://s3.amazonaws.com/devpublic1/datasheets/Panasonic_TF_Resistors.pdf</t>
+    <t>DigiKey Part Numbers</t>
+  </si>
+  <si>
+    <t>18K</t>
+  </si>
+  <si>
+    <t>22K</t>
+  </si>
+  <si>
+    <t>399-1032-2-ND</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>C0402C102K5RACTU</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>MCP6001RT-E/OTCT-ND</t>
+  </si>
+  <si>
+    <t>MCP6001RT-E/OT</t>
+  </si>
+  <si>
+    <t>MICROCHIP</t>
+  </si>
+  <si>
+    <t>Sponsored by JST</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>RMCF0201FT10K0TR-ND</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>RMCF0201FT10K0</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDM0000/AOA0000C307.pdf</t>
+  </si>
+  <si>
+    <t>ERA-3AEB183V</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>P18KDBTR-ND</t>
+  </si>
+  <si>
+    <t>P22KDBTR-ND</t>
+  </si>
+  <si>
+    <t>ERA-3AEB223V</t>
+  </si>
+  <si>
+    <t>620-1465-5-ND</t>
+  </si>
+  <si>
+    <t>Allegro Microsystems</t>
+  </si>
+  <si>
+    <t>ACS759LCB-100B-PFF-T</t>
+  </si>
+  <si>
+    <t>ADC081C027</t>
+  </si>
+  <si>
+    <t>ADC081C027CIMKX/NOPBTR-ND</t>
+  </si>
+  <si>
+    <t>ADC081C027CIMKX/NOPB</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
   </si>
 </sst>
 </file>
@@ -236,11 +305,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -543,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -554,12 +626,14 @@
     <col min="2" max="2" width="9.26171875" customWidth="1"/>
     <col min="3" max="3" width="20.47265625" customWidth="1"/>
     <col min="5" max="5" width="14.5234375" customWidth="1"/>
-    <col min="6" max="6" width="14.578125" customWidth="1"/>
-    <col min="7" max="7" width="12.1015625" customWidth="1"/>
-    <col min="9" max="9" width="9.05078125" customWidth="1"/>
+    <col min="6" max="6" width="26.7890625" customWidth="1"/>
+    <col min="7" max="7" width="23.1015625" customWidth="1"/>
+    <col min="8" max="8" width="22.68359375" customWidth="1"/>
+    <col min="10" max="10" width="28.05078125" customWidth="1"/>
+    <col min="11" max="11" width="9.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,16 +656,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -604,11 +687,23 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -627,14 +722,23 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -653,14 +757,23 @@
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -679,14 +792,23 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -705,14 +827,23 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -731,14 +862,23 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -754,22 +894,28 @@
       <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -778,24 +924,30 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -804,232 +956,313 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="G13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -1038,21 +1271,30 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -1061,29 +1303,54 @@
         <v>8</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
         <v>50</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E21">
         <v>52</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1"/>
+    <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3" display="https://www.digikey.ca/product-detail/en/kemet/C0402C102K5RACTU/399-1032-2-ND/411034"/>
+    <hyperlink ref="J3" r:id="rId4" display="https://www.digikey.ca/product-detail/en/kemet/C0402C102K5RACTU/399-1032-2-ND/411034"/>
+    <hyperlink ref="K3:K7" r:id="rId5" display="https://content.kemet.com/datasheets/KEM_C1002_X7R_SMD.pdf"/>
+    <hyperlink ref="J4:J7" r:id="rId6" display="https://www.digikey.ca/product-detail/en/kemet/C0402C102K5RACTU/399-1032-2-ND/411034"/>
+    <hyperlink ref="K11" r:id="rId7"/>
+    <hyperlink ref="K12:K14" r:id="rId8" display="https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf"/>
+    <hyperlink ref="J11" r:id="rId9" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0201FT10K0/RMCF0201FT10K0TR-ND/1714990"/>
+    <hyperlink ref="J12:J14" r:id="rId10" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0201FT10K0/RMCF0201FT10K0TR-ND/1714990"/>
+    <hyperlink ref="K17" r:id="rId11"/>
+    <hyperlink ref="J17" r:id="rId12" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0201FT10K0/RMCF0201FT10K0TR-ND/1714990"/>
+    <hyperlink ref="K15" r:id="rId13"/>
+    <hyperlink ref="J15" r:id="rId14" display="https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0201FT10K0/RMCF0201FT10K0TR-ND/1714990"/>
+    <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K18" r:id="rId16"/>
+    <hyperlink ref="K19" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>